--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Colombia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Colombia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G495"/>
+  <dimension ref="A1:G498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12826,6 +12826,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>ECONOMICS:COM2</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>715615543200000</v>
+      </c>
+      <c r="D496" t="n">
+        <v>715615543200000</v>
+      </c>
+      <c r="E496" t="n">
+        <v>715615543200000</v>
+      </c>
+      <c r="F496" t="n">
+        <v>715615543200000</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>ECONOMICS:COM2</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>711615720000000</v>
+      </c>
+      <c r="D497" t="n">
+        <v>711615720000000</v>
+      </c>
+      <c r="E497" t="n">
+        <v>711615720000000</v>
+      </c>
+      <c r="F497" t="n">
+        <v>711615720000000</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>ECONOMICS:COM2</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>710709600000000</v>
+      </c>
+      <c r="D498" t="n">
+        <v>710709600000000</v>
+      </c>
+      <c r="E498" t="n">
+        <v>710709600000000</v>
+      </c>
+      <c r="F498" t="n">
+        <v>710709600000000</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Colombia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Colombia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G498"/>
+  <dimension ref="A1:G499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12901,6 +12901,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>ECONOMICS:COM2</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>722810580000000</v>
+      </c>
+      <c r="D499" t="n">
+        <v>722810580000000</v>
+      </c>
+      <c r="E499" t="n">
+        <v>722810580000000</v>
+      </c>
+      <c r="F499" t="n">
+        <v>722810580000000</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Colombia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Colombia_M2.xlsx
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30407.41666666667</v>
+        <v>30407.45833333333</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31138.41666666667</v>
+        <v>31138.45833333333</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31503.41666666667</v>
+        <v>31503.45833333333</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31868.41666666667</v>
+        <v>31868.45833333333</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32234.41666666667</v>
+        <v>32234.45833333333</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -12861,16 +12861,16 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>711615720000000</v>
+        <v>711615724300000</v>
       </c>
       <c r="D497" t="n">
-        <v>711615720000000</v>
+        <v>711615724300000</v>
       </c>
       <c r="E497" t="n">
-        <v>711615720000000</v>
+        <v>711615724300000</v>
       </c>
       <c r="F497" t="n">
-        <v>711615720000000</v>
+        <v>711615724300000</v>
       </c>
       <c r="G497" t="n">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>710709600000000</v>
+        <v>710709598600000</v>
       </c>
       <c r="D498" t="n">
-        <v>710709600000000</v>
+        <v>710709598600000</v>
       </c>
       <c r="E498" t="n">
-        <v>710709600000000</v>
+        <v>710709598600000</v>
       </c>
       <c r="F498" t="n">
-        <v>710709600000000</v>
+        <v>710709598600000</v>
       </c>
       <c r="G498" t="n">
         <v>0</v>
@@ -12911,16 +12911,16 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>722810580000000</v>
+        <v>722810581100000</v>
       </c>
       <c r="D499" t="n">
-        <v>722810580000000</v>
+        <v>722810581100000</v>
       </c>
       <c r="E499" t="n">
-        <v>722810580000000</v>
+        <v>722810581100000</v>
       </c>
       <c r="F499" t="n">
-        <v>722810580000000</v>
+        <v>722810581100000</v>
       </c>
       <c r="G499" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Colombia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Colombia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G499"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30407.45833333333</v>
+        <v>30407.41666666667</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31138.45833333333</v>
+        <v>31138.41666666667</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31503.45833333333</v>
+        <v>31503.41666666667</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -12911,18 +12911,43 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>722810581100000</v>
+        <v>722810580000000</v>
       </c>
       <c r="D499" t="n">
-        <v>722810581100000</v>
+        <v>722810580000000</v>
       </c>
       <c r="E499" t="n">
-        <v>722810581100000</v>
+        <v>722810580000000</v>
       </c>
       <c r="F499" t="n">
-        <v>722810581100000</v>
+        <v>722810580000000</v>
       </c>
       <c r="G499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>ECONOMICS:COM2</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>724800930000000</v>
+      </c>
+      <c r="D500" t="n">
+        <v>724800930000000</v>
+      </c>
+      <c r="E500" t="n">
+        <v>724800930000000</v>
+      </c>
+      <c r="F500" t="n">
+        <v>724800930000000</v>
+      </c>
+      <c r="G500" t="n">
         <v>0</v>
       </c>
     </row>
